--- a/notebooks/evaluation_results/results_summary_metrics.xlsx
+++ b/notebooks/evaluation_results/results_summary_metrics.xlsx
@@ -502,34 +502,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02882147024504084</v>
+        <v>0.0288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2410123909540479</v>
+        <v>0.241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1326781140156004</v>
+        <v>0.1327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9111111111111113</v>
+        <v>0.9111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3793721973094169</v>
+        <v>0.3794</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04767780924799141</v>
+        <v>0.0477</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4075723767946387</v>
+        <v>0.4076</v>
       </c>
       <c r="I2" t="n">
-        <v>0.24574521958344</v>
+        <v>0.2457</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>1714</v>
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004492415402567095</v>
+        <v>0.0045</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03649913874534644</v>
+        <v>0.0365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01685307839867409</v>
+        <v>0.0169</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8910540645663168</v>
+        <v>0.8911</v>
       </c>
       <c r="F3" t="n">
-        <v>0.86251576309056</v>
+        <v>0.8625</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02071375736334399</v>
+        <v>0.0207</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1777610174043806</v>
+        <v>0.1778</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08589149327932358</v>
+        <v>0.0859</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04082475390274592</v>
+        <v>0.0408</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04079901280477444</v>
+        <v>0.0408</v>
       </c>
       <c r="L3" t="n">
         <v>1714</v>
@@ -582,34 +582,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01161026837806301</v>
+        <v>0.0116</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09539089848308051</v>
+        <v>0.0954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04609511383867695</v>
+        <v>0.0461</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05646311422274082</v>
+        <v>0.0565</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7401962733699263</v>
+        <v>0.7402</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03203480148207027</v>
+        <v>0.032</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2781543620782254</v>
+        <v>0.2782</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1411380538018961</v>
+        <v>0.1411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1632866488556624</v>
+        <v>0.1633</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05801543770961887</v>
+        <v>0.058</v>
       </c>
       <c r="L4" t="n">
         <v>1714</v>
@@ -622,34 +622,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006651108518086348</v>
+        <v>0.0067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05364783019392121</v>
+        <v>0.0536</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02442552231995412</v>
+        <v>0.0244</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5801115000648256</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8792722553908462</v>
+        <v>0.8793</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02561014333413602</v>
+        <v>0.0256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2141155623282201</v>
+        <v>0.2141</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1041246123750371</v>
+        <v>0.1041</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1375108316456503</v>
+        <v>0.1375</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04089065933388806</v>
+        <v>0.0409</v>
       </c>
       <c r="L5" t="n">
         <v>1714</v>
@@ -662,34 +662,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006359393232205367</v>
+        <v>0.0064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05357837417347335</v>
+        <v>0.0536</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02410533532657521</v>
+        <v>0.0241</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5411253727473098</v>
+        <v>0.5411</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8572698588778249</v>
+        <v>0.8573</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02440281625015272</v>
+        <v>0.0244</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2148907672769118</v>
+        <v>0.2149</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1055349536330463</v>
+        <v>0.1055</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1466002783539368</v>
+        <v>0.1466</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04418113981950057</v>
+        <v>0.0442</v>
       </c>
       <c r="L6" t="n">
         <v>1714</v>
@@ -702,34 +702,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006651108518086348</v>
+        <v>0.0067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05364783019392121</v>
+        <v>0.0536</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02442552231995412</v>
+        <v>0.0244</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5801115000648256</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8792722553908462</v>
+        <v>0.8793</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02561014333413602</v>
+        <v>0.0256</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2141155623282201</v>
+        <v>0.2141</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1041246123750371</v>
+        <v>0.1041</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1375108316456503</v>
+        <v>0.1375</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04089065933388806</v>
+        <v>0.0409</v>
       </c>
       <c r="L7" t="n">
         <v>1714</v>
@@ -742,34 +742,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006242707117852976</v>
+        <v>0.0062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0494665777629605</v>
+        <v>0.0495</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02294386525021094</v>
+        <v>0.0229</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6568520679372488</v>
+        <v>0.6569</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8882916210997797</v>
+        <v>0.8883</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02490592608058819</v>
+        <v>0.0249</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2052110508083743</v>
+        <v>0.2052</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1017616961504333</v>
+        <v>0.1018</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1502442568041061</v>
+        <v>0.1502</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04038590587990473</v>
+        <v>0.0404</v>
       </c>
       <c r="L8" t="n">
         <v>1714</v>
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005192532088681446</v>
+        <v>0.0052</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04265988775907096</v>
+        <v>0.0427</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0201487047683173</v>
+        <v>0.0201</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7468429923505769</v>
+        <v>0.7468</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8987970341843222</v>
+        <v>0.8988</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02244904075481617</v>
+        <v>0.0224</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1925263877912108</v>
+        <v>0.1925</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09719852338085487</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.15363648528058</v>
+        <v>0.1536</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03981975744072773</v>
+        <v>0.0398</v>
       </c>
       <c r="L9" t="n">
         <v>1714</v>
@@ -822,34 +822,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004959159859976664</v>
+        <v>0.005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04018030782908263</v>
+        <v>0.0402</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01880953050735076</v>
+        <v>0.0188</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9264618177103591</v>
+        <v>0.9265</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9143811711518437</v>
+        <v>0.9144</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02197706374646308</v>
+        <v>0.022</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1860374072562947</v>
+        <v>0.186</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09409972619876231</v>
+        <v>0.0941</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09267838700741303</v>
+        <v>0.0927</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03896340715198981</v>
+        <v>0.039</v>
       </c>
       <c r="L10" t="n">
         <v>1714</v>
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004842473745624271</v>
+        <v>0.0048</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04137495138078568</v>
+        <v>0.0414</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01553912828607401</v>
+        <v>0.0155</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9775962660443407</v>
+        <v>0.9776</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8826250189680342</v>
+        <v>0.8826000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02146620186678041</v>
+        <v>0.0215</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1907281211873841</v>
+        <v>0.1907</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0805668681678233</v>
+        <v>0.0806</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002000161885199204</v>
+        <v>0.002</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02067968369971855</v>
+        <v>0.0207</v>
       </c>
       <c r="L11" t="n">
         <v>1714</v>
@@ -902,34 +902,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006476079346557761</v>
+        <v>0.0065</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05160582319275436</v>
+        <v>0.0516</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02373744506363261</v>
+        <v>0.0237</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6002593024763386</v>
+        <v>0.6002999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8817558905557502</v>
+        <v>0.8818</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02531154213513238</v>
+        <v>0.0253</v>
       </c>
       <c r="H12" t="n">
-        <v>0.209457723858865</v>
+        <v>0.2095</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1029869539912151</v>
+        <v>0.103</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1484395659722628</v>
+        <v>0.1484</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0413989081748619</v>
+        <v>0.0414</v>
       </c>
       <c r="L12" t="n">
         <v>1714</v>
